--- a/data/results/coalesced.xlsx
+++ b/data/results/coalesced.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/Farmers-Insurance-POC/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E209A3-EC7E-F740-AA0A-65CE2E6100C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A129D3-6120-CA46-995E-EC9B92AD9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1993">
   <si>
     <t>question</t>
   </si>
@@ -13959,9 +13971,6 @@
     <t>- The answer to your question requires information about your HSA limit for the year.
 - Unfortunately, the provided context does not contain any information about your HSA limit.
 - Therefore, I cannot answer your question.</t>
-  </si>
-  <si>
-    <t>- A roof can have clawing shingles, but they are considered unacceptable characteristics.</t>
   </si>
   <si>
     <t>**Combined Answer:**
@@ -14239,7 +14248,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14258,6 +14267,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14569,8 +14581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="K293" sqref="K293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14610,7 +14622,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14626,7 +14638,7 @@
       <c r="D2" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>941</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -14661,7 +14673,7 @@
       <c r="D3" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>941</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -14696,7 +14708,7 @@
       <c r="D4" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>941</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -14731,7 +14743,7 @@
       <c r="D5" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -14748,6 +14760,9 @@
       </c>
       <c r="J5" s="5" t="s">
         <v>1753</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14763,7 +14778,7 @@
       <c r="D6" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -14780,6 +14795,9 @@
       </c>
       <c r="J6" s="6" t="s">
         <v>1754</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14795,7 +14813,7 @@
       <c r="D7" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -14812,6 +14830,9 @@
       </c>
       <c r="J7" s="7" t="s">
         <v>1755</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14827,7 +14848,7 @@
       <c r="D8" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>941</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -14844,6 +14865,9 @@
       </c>
       <c r="J8" s="7" t="s">
         <v>1756</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14859,7 +14883,7 @@
       <c r="D9" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -14876,6 +14900,9 @@
       </c>
       <c r="J9" s="5" t="s">
         <v>1757</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14891,7 +14918,7 @@
       <c r="D10" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -14908,6 +14935,9 @@
       </c>
       <c r="J10" s="7" t="s">
         <v>1758</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14923,7 +14953,7 @@
       <c r="D11" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -14940,6 +14970,9 @@
       </c>
       <c r="J11" s="5" t="s">
         <v>1759</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14955,7 +14988,7 @@
       <c r="D12" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -14972,6 +15005,9 @@
       </c>
       <c r="J12" s="3" t="s">
         <v>1760</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -14987,7 +15023,7 @@
       <c r="D13" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -15004,6 +15040,9 @@
       </c>
       <c r="J13" s="5" t="s">
         <v>1761</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -15019,7 +15058,7 @@
       <c r="D14" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -15036,6 +15075,9 @@
       </c>
       <c r="J14" s="3" t="s">
         <v>1762</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -15051,7 +15093,7 @@
       <c r="D15" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -15068,6 +15110,9 @@
       </c>
       <c r="J15" s="3" t="s">
         <v>1763</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
@@ -15080,7 +15125,7 @@
       <c r="C16" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -15098,8 +15143,11 @@
       <c r="J16" s="3" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -15112,7 +15160,7 @@
       <c r="D17" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -15130,8 +15178,11 @@
       <c r="J17" s="3" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -15144,7 +15195,7 @@
       <c r="D18" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -15162,8 +15213,11 @@
       <c r="J18" s="3" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -15176,7 +15230,7 @@
       <c r="D19" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -15191,11 +15245,14 @@
       <c r="I19" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="3" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -15208,7 +15265,7 @@
       <c r="D20" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -15223,11 +15280,14 @@
       <c r="I20" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="7" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -15237,7 +15297,7 @@
       <c r="C21" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -15252,11 +15312,14 @@
       <c r="I21" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="3" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -15269,7 +15332,7 @@
       <c r="D22" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -15284,11 +15347,14 @@
       <c r="I22" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="3" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -15301,7 +15367,7 @@
       <c r="D23" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -15316,11 +15382,14 @@
       <c r="I23" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="3" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -15333,7 +15402,7 @@
       <c r="D24" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -15348,11 +15417,14 @@
       <c r="I24" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="3" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -15365,7 +15437,7 @@
       <c r="D25" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -15380,11 +15452,14 @@
       <c r="I25" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="3" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -15394,7 +15469,7 @@
       <c r="C26" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -15409,11 +15484,14 @@
       <c r="I26" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="3" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -15426,7 +15504,7 @@
       <c r="D27" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -15441,11 +15519,14 @@
       <c r="I27" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="5" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -15458,7 +15539,7 @@
       <c r="D28" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -15473,11 +15554,14 @@
       <c r="I28" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="3" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -15487,7 +15571,7 @@
       <c r="C29" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>945</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -15502,11 +15586,14 @@
       <c r="I29" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="3" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -15519,7 +15606,7 @@
       <c r="D30" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -15534,11 +15621,14 @@
       <c r="I30" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="5" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -15551,7 +15641,7 @@
       <c r="D31" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -15566,11 +15656,14 @@
       <c r="I31" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="7" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -15583,7 +15676,7 @@
       <c r="D32" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -15598,11 +15691,14 @@
       <c r="I32" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="3" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -15615,7 +15711,7 @@
       <c r="D33" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -15630,11 +15726,14 @@
       <c r="I33" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="3" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -15644,7 +15743,7 @@
       <c r="D34" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -15659,11 +15758,14 @@
       <c r="I34" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="7" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -15676,7 +15778,7 @@
       <c r="D35" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -15691,11 +15793,14 @@
       <c r="I35" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="7" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -15705,7 +15810,7 @@
       <c r="D36" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -15720,11 +15825,14 @@
       <c r="I36" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="7" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -15737,7 +15845,7 @@
       <c r="D37" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -15752,11 +15860,14 @@
       <c r="I37" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="7" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -15769,7 +15880,7 @@
       <c r="D38" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -15784,11 +15895,14 @@
       <c r="I38" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="5" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -15801,7 +15915,7 @@
       <c r="D39" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -15816,11 +15930,14 @@
       <c r="I39" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="3" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -15833,7 +15950,7 @@
       <c r="D40" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -15848,11 +15965,14 @@
       <c r="I40" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="3" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -15865,7 +15985,7 @@
       <c r="D41" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -15880,11 +16000,14 @@
       <c r="I41" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="3" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -15897,7 +16020,7 @@
       <c r="D42" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -15912,11 +16035,14 @@
       <c r="I42" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="3" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -15929,7 +16055,7 @@
       <c r="D43" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -15944,11 +16070,14 @@
       <c r="I43" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="5" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -15961,7 +16090,7 @@
       <c r="D44" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -15976,11 +16105,14 @@
       <c r="I44" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="3" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -15993,7 +16125,7 @@
       <c r="D45" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -16008,11 +16140,14 @@
       <c r="I45" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="5" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -16025,7 +16160,7 @@
       <c r="D46" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -16040,11 +16175,14 @@
       <c r="I46" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="3" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -16057,7 +16195,7 @@
       <c r="D47" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -16072,11 +16210,14 @@
       <c r="I47" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="3" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -16089,7 +16230,7 @@
       <c r="D48" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -16104,11 +16245,14 @@
       <c r="I48" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="3" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="372" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -16118,7 +16262,7 @@
       <c r="C49" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -16133,11 +16277,14 @@
       <c r="I49" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="3" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -16150,7 +16297,7 @@
       <c r="D50" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -16165,11 +16312,14 @@
       <c r="I50" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="5" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -16179,7 +16329,7 @@
       <c r="C51" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -16194,11 +16344,14 @@
       <c r="I51" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="3" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -16211,7 +16364,7 @@
       <c r="D52" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -16226,11 +16379,14 @@
       <c r="I52" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="5" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -16243,7 +16399,7 @@
       <c r="D53" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -16258,11 +16414,14 @@
       <c r="I53" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="3" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -16275,7 +16434,7 @@
       <c r="D54" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -16290,11 +16449,14 @@
       <c r="I54" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="3" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -16307,7 +16469,7 @@
       <c r="D55" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -16322,11 +16484,14 @@
       <c r="I55" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="5" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -16339,7 +16504,7 @@
       <c r="D56" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -16354,11 +16519,14 @@
       <c r="I56" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="5" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -16368,7 +16536,7 @@
       <c r="C57" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -16383,11 +16551,14 @@
       <c r="I57" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="3" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -16400,7 +16571,7 @@
       <c r="D58" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -16415,11 +16586,14 @@
       <c r="I58" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="3" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -16429,7 +16603,7 @@
       <c r="D59" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>946</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -16444,11 +16618,14 @@
       <c r="I59" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="3" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -16458,7 +16635,7 @@
       <c r="C60" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -16473,11 +16650,14 @@
       <c r="I60" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="3" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -16487,7 +16667,7 @@
       <c r="C61" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -16502,11 +16682,14 @@
       <c r="I61" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="3" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -16519,7 +16702,7 @@
       <c r="D62" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -16534,11 +16717,14 @@
       <c r="I62" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="7" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -16551,7 +16737,7 @@
       <c r="D63" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -16566,11 +16752,14 @@
       <c r="I63" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="3" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -16583,7 +16772,7 @@
       <c r="D64" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -16598,11 +16787,14 @@
       <c r="I64" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="5" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -16615,7 +16807,7 @@
       <c r="D65" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -16630,11 +16822,14 @@
       <c r="I65" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="5" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
@@ -16647,7 +16842,7 @@
       <c r="D66" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -16662,11 +16857,14 @@
       <c r="I66" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="5" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -16679,7 +16877,7 @@
       <c r="D67" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -16694,11 +16892,14 @@
       <c r="I67" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="3" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -16708,7 +16909,7 @@
       <c r="C68" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -16723,11 +16924,14 @@
       <c r="I68" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="3" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -16740,7 +16944,7 @@
       <c r="D69" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -16755,11 +16959,14 @@
       <c r="I69" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="5" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -16772,7 +16979,7 @@
       <c r="D70" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -16787,11 +16994,14 @@
       <c r="I70" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="3" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -16804,7 +17014,7 @@
       <c r="D71" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -16819,11 +17029,14 @@
       <c r="I71" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="5" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="192" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -16833,7 +17046,7 @@
       <c r="C72" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -16848,11 +17061,14 @@
       <c r="I72" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="3" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -16865,7 +17081,7 @@
       <c r="D73" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -16880,11 +17096,14 @@
       <c r="I73" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="3" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -16897,7 +17116,7 @@
       <c r="D74" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -16912,11 +17131,14 @@
       <c r="I74" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="3" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -16929,7 +17151,7 @@
       <c r="D75" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -16944,11 +17166,14 @@
       <c r="I75" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="3" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -16961,7 +17186,7 @@
       <c r="D76" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -16976,11 +17201,14 @@
       <c r="I76" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="3" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -16993,7 +17221,7 @@
       <c r="D77" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -17008,11 +17236,14 @@
       <c r="I77" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="3" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -17025,7 +17256,7 @@
       <c r="D78" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -17040,11 +17271,14 @@
       <c r="I78" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="3" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -17057,7 +17291,7 @@
       <c r="D79" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -17072,11 +17306,14 @@
       <c r="I79" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="5" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="395" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
@@ -17086,7 +17323,7 @@
       <c r="C80" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -17101,11 +17338,14 @@
       <c r="I80" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="3" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
@@ -17118,7 +17358,7 @@
       <c r="D81" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -17133,11 +17373,14 @@
       <c r="I81" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="3" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
@@ -17150,7 +17393,7 @@
       <c r="D82" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -17165,11 +17408,14 @@
       <c r="I82" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="3" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
@@ -17179,7 +17425,7 @@
       <c r="C83" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -17194,11 +17440,14 @@
       <c r="I83" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="3" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -17211,7 +17460,7 @@
       <c r="D84" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -17226,11 +17475,14 @@
       <c r="I84" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="3" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="304" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -17243,7 +17495,7 @@
       <c r="D85" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -17258,11 +17510,14 @@
       <c r="I85" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="3" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -17272,7 +17527,7 @@
       <c r="C86" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -17287,11 +17542,14 @@
       <c r="I86" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="3" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -17304,7 +17562,7 @@
       <c r="D87" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -17319,11 +17577,14 @@
       <c r="I87" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="5" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -17336,7 +17597,7 @@
       <c r="D88" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -17351,11 +17612,14 @@
       <c r="I88" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="7" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -17365,7 +17629,7 @@
       <c r="C89" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -17380,11 +17644,14 @@
       <c r="I89" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="3" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="340" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -17394,7 +17661,7 @@
       <c r="C90" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -17409,11 +17676,14 @@
       <c r="I90" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="3" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -17426,7 +17696,7 @@
       <c r="D91" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -17441,11 +17711,14 @@
       <c r="I91" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="3" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -17458,7 +17731,7 @@
       <c r="D92" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -17473,11 +17746,14 @@
       <c r="I92" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="3" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -17487,7 +17763,7 @@
       <c r="C93" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -17502,11 +17778,14 @@
       <c r="I93" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="3" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -17519,7 +17798,7 @@
       <c r="D94" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -17534,11 +17813,14 @@
       <c r="I94" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="5" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -17551,7 +17833,7 @@
       <c r="D95" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -17566,11 +17848,14 @@
       <c r="I95" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="7" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -17580,7 +17865,7 @@
       <c r="C96" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -17595,11 +17880,14 @@
       <c r="I96" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="3" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -17612,7 +17900,7 @@
       <c r="D97" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -17627,11 +17915,14 @@
       <c r="I97" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="5" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -17644,7 +17935,7 @@
       <c r="D98" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -17659,11 +17950,14 @@
       <c r="I98" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="5" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -17673,7 +17967,7 @@
       <c r="C99" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -17688,11 +17982,14 @@
       <c r="I99" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="3" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -17705,7 +18002,7 @@
       <c r="D100" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -17720,11 +18017,14 @@
       <c r="I100" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="5" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -17734,7 +18034,7 @@
       <c r="C101" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -17749,11 +18049,14 @@
       <c r="I101" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="3" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -17763,7 +18066,7 @@
       <c r="C102" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -17778,11 +18081,14 @@
       <c r="I102" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="3" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="388" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -17795,7 +18101,7 @@
       <c r="D103" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -17810,11 +18116,14 @@
       <c r="I103" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="3" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -17827,7 +18136,7 @@
       <c r="D104" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -17842,11 +18151,14 @@
       <c r="I104" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="5" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
@@ -17859,7 +18171,7 @@
       <c r="D105" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -17874,11 +18186,14 @@
       <c r="I105" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="7" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>19</v>
       </c>
@@ -17891,7 +18206,7 @@
       <c r="D106" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -17906,11 +18221,14 @@
       <c r="I106" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="3" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -17923,7 +18241,7 @@
       <c r="D107" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -17938,11 +18256,14 @@
       <c r="I107" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="3" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -17955,7 +18276,7 @@
       <c r="D108" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -17970,11 +18291,14 @@
       <c r="I108" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J108" s="5" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="144" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
@@ -17984,7 +18308,7 @@
       <c r="C109" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -17999,11 +18323,14 @@
       <c r="I109" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="J109" s="5" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="365" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
@@ -18013,7 +18340,7 @@
       <c r="C110" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -18028,11 +18355,14 @@
       <c r="I110" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="3" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="335" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
@@ -18045,7 +18375,7 @@
       <c r="D111" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -18060,11 +18390,14 @@
       <c r="I111" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="3" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>115</v>
       </c>
@@ -18074,7 +18407,7 @@
       <c r="C112" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -18089,11 +18422,14 @@
       <c r="I112" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="3" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
@@ -18106,7 +18442,7 @@
       <c r="D113" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -18121,11 +18457,14 @@
       <c r="I113" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
@@ -18138,7 +18477,7 @@
       <c r="D114" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -18153,11 +18492,14 @@
       <c r="I114" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="J114" s="5" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="380" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
@@ -18170,7 +18512,7 @@
       <c r="D115" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -18185,11 +18527,14 @@
       <c r="I115" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="5" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="272" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -18202,7 +18547,7 @@
       <c r="D116" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -18217,11 +18562,14 @@
       <c r="I116" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="3" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -18234,7 +18582,7 @@
       <c r="D117" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -18249,11 +18597,14 @@
       <c r="I117" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="5" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -18263,7 +18614,7 @@
       <c r="C118" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -18278,11 +18629,14 @@
       <c r="I118" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="J118" s="3" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
@@ -18292,7 +18646,7 @@
       <c r="C119" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -18307,11 +18661,14 @@
       <c r="I119" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J119" s="3" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -18321,7 +18678,7 @@
       <c r="C120" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -18336,11 +18693,14 @@
       <c r="I120" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="3" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="304" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
@@ -18350,7 +18710,7 @@
       <c r="C121" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -18365,11 +18725,14 @@
       <c r="I121" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="3" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -18382,7 +18745,7 @@
       <c r="D122" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -18397,18 +18760,21 @@
       <c r="I122" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J122" s="5" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -18423,11 +18789,14 @@
       <c r="I123" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J123" s="5" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -18440,7 +18809,7 @@
       <c r="D124" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -18455,11 +18824,14 @@
       <c r="I124" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="3" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -18472,7 +18844,7 @@
       <c r="D125" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -18487,11 +18859,14 @@
       <c r="I125" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="5" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -18501,7 +18876,7 @@
       <c r="C126" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -18516,11 +18891,14 @@
       <c r="I126" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="J126" s="3" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>103</v>
       </c>
@@ -18533,7 +18911,7 @@
       <c r="D127" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -18548,11 +18926,14 @@
       <c r="I127" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" s="5" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="395" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -18562,7 +18943,7 @@
       <c r="C128" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -18577,11 +18958,14 @@
       <c r="I128" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" s="3" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -18591,7 +18975,7 @@
       <c r="C129" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -18606,11 +18990,14 @@
       <c r="I129" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="J129" s="3" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="323" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -18623,7 +19010,7 @@
       <c r="D130" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -18638,11 +19025,14 @@
       <c r="I130" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="J130" s="3" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -18655,7 +19045,7 @@
       <c r="D131" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -18670,11 +19060,14 @@
       <c r="I131" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" s="3" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -18684,7 +19077,7 @@
       <c r="C132" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -18699,11 +19092,14 @@
       <c r="I132" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="3" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -18713,7 +19109,7 @@
       <c r="C133" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -18728,11 +19124,14 @@
       <c r="I133" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" s="3" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>49</v>
       </c>
@@ -18742,7 +19141,7 @@
       <c r="C134" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -18757,11 +19156,14 @@
       <c r="I134" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="3" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -18774,7 +19176,7 @@
       <c r="D135" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -18789,11 +19191,14 @@
       <c r="I135" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="J135" s="3" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="335" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -18803,7 +19208,7 @@
       <c r="C136" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -18818,11 +19223,14 @@
       <c r="I136" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J136" s="3" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -18832,7 +19240,7 @@
       <c r="C137" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -18847,11 +19255,14 @@
       <c r="I137" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" s="3" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -18861,7 +19272,7 @@
       <c r="C138" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -18876,11 +19287,14 @@
       <c r="I138" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" s="3" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -18890,7 +19304,7 @@
       <c r="C139" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -18905,11 +19319,14 @@
       <c r="I139" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" s="3" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -18922,7 +19339,7 @@
       <c r="D140" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -18937,11 +19354,14 @@
       <c r="I140" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" s="3" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -18951,7 +19371,7 @@
       <c r="C141" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -18966,11 +19386,14 @@
       <c r="I141" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" s="3" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="340" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -18980,7 +19403,7 @@
       <c r="C142" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -18995,11 +19418,14 @@
       <c r="I142" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J142" s="3" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -19012,7 +19438,7 @@
       <c r="D143" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -19027,11 +19453,14 @@
       <c r="I143" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" s="3" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -19041,7 +19470,7 @@
       <c r="C144" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -19056,11 +19485,14 @@
       <c r="I144" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" s="3" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="356" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -19070,7 +19502,7 @@
       <c r="C145" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -19085,11 +19517,14 @@
       <c r="I145" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" s="3" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -19102,7 +19537,7 @@
       <c r="D146" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -19117,11 +19552,14 @@
       <c r="I146" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J146" s="3" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -19134,7 +19572,7 @@
       <c r="D147" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -19149,11 +19587,14 @@
       <c r="I147" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="J147" s="3" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -19166,7 +19607,7 @@
       <c r="D148" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -19181,11 +19622,14 @@
       <c r="I148" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" s="5" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -19198,7 +19642,7 @@
       <c r="D149" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F149" s="1" t="s">
@@ -19213,11 +19657,14 @@
       <c r="I149" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="J149" s="7" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>142</v>
       </c>
@@ -19230,7 +19677,7 @@
       <c r="D150" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -19245,11 +19692,14 @@
       <c r="I150" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J150" s="5" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
@@ -19259,7 +19709,7 @@
       <c r="C151" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -19274,11 +19724,14 @@
       <c r="I151" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="J151" s="3" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
@@ -19288,7 +19741,7 @@
       <c r="C152" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F152" s="1" t="s">
@@ -19303,11 +19756,14 @@
       <c r="I152" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" s="5" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="388" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
@@ -19320,7 +19776,7 @@
       <c r="D153" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -19335,11 +19791,14 @@
       <c r="I153" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" s="3" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="365" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
@@ -19352,7 +19811,7 @@
       <c r="D154" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -19367,11 +19826,14 @@
       <c r="I154" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="J154" s="3" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="224" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -19384,7 +19846,7 @@
       <c r="D155" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -19399,11 +19861,14 @@
       <c r="I155" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="J155" s="3" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="388" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
@@ -19416,7 +19881,7 @@
       <c r="D156" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -19431,11 +19896,14 @@
       <c r="I156" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="J156" s="3" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="356" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
@@ -19445,7 +19913,7 @@
       <c r="C157" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -19460,11 +19928,14 @@
       <c r="I157" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="J157" s="3" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="272" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
@@ -19477,7 +19948,7 @@
       <c r="D158" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -19492,11 +19963,14 @@
       <c r="I158" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="J158" s="5" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
@@ -19509,7 +19983,7 @@
       <c r="D159" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -19524,11 +19998,14 @@
       <c r="I159" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J159" s="3" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
@@ -19541,7 +20018,7 @@
       <c r="D160" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -19556,11 +20033,14 @@
       <c r="I160" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J160" s="3" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -19570,7 +20050,7 @@
       <c r="C161" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F161" s="1" t="s">
@@ -19585,11 +20065,14 @@
       <c r="I161" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J161" s="3" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="240" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
@@ -19599,7 +20082,7 @@
       <c r="C162" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F162" s="1" t="s">
@@ -19614,11 +20097,14 @@
       <c r="I162" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="J162" s="1" t="s">
+      <c r="J162" s="3" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="208" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -19631,7 +20117,7 @@
       <c r="D163" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F163" s="1" t="s">
@@ -19646,11 +20132,14 @@
       <c r="I163" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J163" s="3" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
@@ -19660,7 +20149,7 @@
       <c r="C164" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F164" s="1" t="s">
@@ -19675,11 +20164,14 @@
       <c r="I164" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="J164" s="1" t="s">
+      <c r="J164" s="3" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
@@ -19689,7 +20181,7 @@
       <c r="C165" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F165" s="1" t="s">
@@ -19704,11 +20196,14 @@
       <c r="I165" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J165" s="3" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="404" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
@@ -19721,7 +20216,7 @@
       <c r="D166" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F166" s="1" t="s">
@@ -19736,11 +20231,14 @@
       <c r="I166" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="J166" s="3" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="340" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
@@ -19750,7 +20248,7 @@
       <c r="C167" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -19765,11 +20263,14 @@
       <c r="I167" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J167" s="3" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
@@ -19782,7 +20283,7 @@
       <c r="D168" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F168" s="1" t="s">
@@ -19797,11 +20298,14 @@
       <c r="I168" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J168" s="7" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
@@ -19811,7 +20315,7 @@
       <c r="C169" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -19826,11 +20330,14 @@
       <c r="I169" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="J169" s="1" t="s">
+      <c r="J169" s="3" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="304" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
@@ -19843,7 +20350,7 @@
       <c r="D170" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F170" s="1" t="s">
@@ -19858,11 +20365,14 @@
       <c r="I170" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="J170" s="5" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
@@ -19872,7 +20382,7 @@
       <c r="C171" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F171" s="1" t="s">
@@ -19887,11 +20397,14 @@
       <c r="I171" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="J171" s="3" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>49</v>
       </c>
@@ -19901,7 +20414,7 @@
       <c r="C172" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F172" s="1" t="s">
@@ -19916,11 +20429,14 @@
       <c r="I172" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="J172" s="3" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -19930,7 +20446,7 @@
       <c r="C173" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F173" s="1" t="s">
@@ -19945,11 +20461,14 @@
       <c r="I173" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="J173" s="1" t="s">
+      <c r="J173" s="3" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="340" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -19959,7 +20478,7 @@
       <c r="C174" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F174" s="1" t="s">
@@ -19974,11 +20493,14 @@
       <c r="I174" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="J174" s="3" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -19991,7 +20513,7 @@
       <c r="D175" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F175" s="1" t="s">
@@ -20006,11 +20528,14 @@
       <c r="I175" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="J175" s="1" t="s">
+      <c r="J175" s="3" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -20023,7 +20548,7 @@
       <c r="D176" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F176" s="1" t="s">
@@ -20038,11 +20563,14 @@
       <c r="I176" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="J176" s="1" t="s">
+      <c r="J176" s="5" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -20052,7 +20580,7 @@
       <c r="C177" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E177" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F177" s="1" t="s">
@@ -20067,11 +20595,14 @@
       <c r="I177" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="J177" s="1" t="s">
+      <c r="J177" s="3" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -20081,7 +20612,7 @@
       <c r="C178" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F178" s="1" t="s">
@@ -20096,11 +20627,14 @@
       <c r="I178" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="J178" s="1" t="s">
+      <c r="J178" s="3" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -20110,7 +20644,7 @@
       <c r="C179" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F179" s="1" t="s">
@@ -20125,11 +20659,14 @@
       <c r="I179" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="J179" s="3" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -20142,7 +20679,7 @@
       <c r="D180" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F180" s="1" t="s">
@@ -20157,11 +20694,14 @@
       <c r="I180" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="J180" s="1" t="s">
+      <c r="J180" s="3" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -20174,7 +20714,7 @@
       <c r="D181" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F181" s="1" t="s">
@@ -20189,11 +20729,14 @@
       <c r="I181" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="J181" s="1" t="s">
+      <c r="J181" s="7" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+      <c r="K181">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="404" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -20206,7 +20749,7 @@
       <c r="D182" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F182" s="1" t="s">
@@ -20221,11 +20764,14 @@
       <c r="I182" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="J182" s="1" t="s">
+      <c r="J182" s="3" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -20238,7 +20784,7 @@
       <c r="D183" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F183" s="1" t="s">
@@ -20253,11 +20799,14 @@
       <c r="I183" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="J183" s="1" t="s">
+      <c r="J183" s="5" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -20267,7 +20816,7 @@
       <c r="C184" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F184" s="1" t="s">
@@ -20282,11 +20831,14 @@
       <c r="I184" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="J184" s="1" t="s">
+      <c r="J184" s="3" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -20296,7 +20848,7 @@
       <c r="C185" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F185" s="1" t="s">
@@ -20311,11 +20863,14 @@
       <c r="I185" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J185" s="3" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -20325,7 +20880,7 @@
       <c r="C186" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F186" s="1" t="s">
@@ -20340,11 +20895,14 @@
       <c r="I186" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="J186" s="1" t="s">
+      <c r="J186" s="3" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -20354,7 +20912,7 @@
       <c r="C187" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F187" s="1" t="s">
@@ -20369,11 +20927,14 @@
       <c r="I187" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="J187" s="1" t="s">
+      <c r="J187" s="3" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -20383,7 +20944,7 @@
       <c r="C188" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F188" s="1" t="s">
@@ -20398,11 +20959,14 @@
       <c r="I188" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="J188" s="1" t="s">
+      <c r="J188" s="5" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="404" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -20415,7 +20979,7 @@
       <c r="D189" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F189" s="1" t="s">
@@ -20430,11 +20994,14 @@
       <c r="I189" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="J189" s="1" t="s">
+      <c r="J189" s="7" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K189">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -20447,7 +21014,7 @@
       <c r="D190" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F190" s="1" t="s">
@@ -20462,11 +21029,14 @@
       <c r="I190" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="J190" s="1" t="s">
+      <c r="J190" s="3" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -20479,7 +21049,7 @@
       <c r="D191" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F191" s="1" t="s">
@@ -20494,11 +21064,14 @@
       <c r="I191" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="J191" s="1" t="s">
+      <c r="J191" s="5" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="224" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -20511,7 +21084,7 @@
       <c r="D192" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F192" s="1" t="s">
@@ -20526,11 +21099,14 @@
       <c r="I192" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="J192" s="1" t="s">
+      <c r="J192" s="3" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="388" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -20540,7 +21116,7 @@
       <c r="C193" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F193" s="1" t="s">
@@ -20555,11 +21131,14 @@
       <c r="I193" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="J193" s="1" t="s">
+      <c r="J193" s="3" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -20569,7 +21148,7 @@
       <c r="C194" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F194" s="1" t="s">
@@ -20584,11 +21163,14 @@
       <c r="I194" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="J194" s="1" t="s">
+      <c r="J194" s="3" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -20601,7 +21183,7 @@
       <c r="D195" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F195" s="1" t="s">
@@ -20616,11 +21198,14 @@
       <c r="I195" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="J195" s="1" t="s">
+      <c r="J195" s="3" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="K195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="272" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -20630,7 +21215,7 @@
       <c r="C196" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F196" s="1" t="s">
@@ -20645,11 +21230,14 @@
       <c r="I196" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="J196" s="1" t="s">
+      <c r="J196" s="3" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -20659,7 +21247,7 @@
       <c r="C197" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F197" s="1" t="s">
@@ -20674,11 +21262,14 @@
       <c r="I197" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="J197" s="1" t="s">
+      <c r="J197" s="3" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -20688,7 +21279,7 @@
       <c r="C198" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F198" s="1" t="s">
@@ -20703,11 +21294,14 @@
       <c r="I198" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="J198" s="1" t="s">
+      <c r="J198" s="3" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="K198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -20717,7 +21311,7 @@
       <c r="C199" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F199" s="1" t="s">
@@ -20732,11 +21326,14 @@
       <c r="I199" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="J199" s="1" t="s">
+      <c r="J199" s="3" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -20749,7 +21346,7 @@
       <c r="D200" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F200" s="1" t="s">
@@ -20764,11 +21361,14 @@
       <c r="I200" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="J200" s="7" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -20781,7 +21381,7 @@
       <c r="D201" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F201" s="1" t="s">
@@ -20796,11 +21396,14 @@
       <c r="I201" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="J201" s="1" t="s">
+      <c r="J201" s="5" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -20813,7 +21416,7 @@
       <c r="D202" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F202" s="1" t="s">
@@ -20828,11 +21431,14 @@
       <c r="I202" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J202" s="3" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="K202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="372" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -20845,7 +21451,7 @@
       <c r="D203" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E203" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -20860,11 +21466,14 @@
       <c r="I203" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="J203" s="1" t="s">
+      <c r="J203" s="3" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -20877,7 +21486,7 @@
       <c r="D204" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E204" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F204" s="1" t="s">
@@ -20892,11 +21501,14 @@
       <c r="I204" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="J204" s="1" t="s">
+      <c r="J204" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -20909,7 +21521,7 @@
       <c r="D205" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F205" s="1" t="s">
@@ -20924,11 +21536,14 @@
       <c r="I205" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="J205" s="1" t="s">
+      <c r="J205" s="5" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -20941,7 +21556,7 @@
       <c r="D206" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F206" s="1" t="s">
@@ -20956,11 +21571,14 @@
       <c r="I206" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="J206" s="1" t="s">
+      <c r="J206" s="3" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -20973,7 +21591,7 @@
       <c r="D207" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F207" s="1" t="s">
@@ -20988,11 +21606,14 @@
       <c r="I207" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="J207" s="1" t="s">
+      <c r="J207" s="5" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -21002,7 +21623,7 @@
       <c r="C208" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F208" s="1" t="s">
@@ -21017,11 +21638,14 @@
       <c r="I208" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="J208" s="1" t="s">
+      <c r="J208" s="3" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -21034,7 +21658,7 @@
       <c r="D209" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F209" s="1" t="s">
@@ -21049,11 +21673,14 @@
       <c r="I209" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="J209" s="1" t="s">
+      <c r="J209" s="3" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="240" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -21063,7 +21690,7 @@
       <c r="C210" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E210" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F210" s="1" t="s">
@@ -21078,11 +21705,14 @@
       <c r="I210" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="J210" s="1" t="s">
+      <c r="J210" s="3" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -21095,7 +21725,7 @@
       <c r="D211" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F211" s="1" t="s">
@@ -21110,11 +21740,14 @@
       <c r="I211" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="J211" s="1" t="s">
+      <c r="J211" s="7" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -21124,7 +21757,7 @@
       <c r="C212" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E212" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F212" s="1" t="s">
@@ -21139,11 +21772,14 @@
       <c r="I212" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="J212" s="1" t="s">
+      <c r="J212" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -21156,7 +21792,7 @@
       <c r="D213" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F213" s="1" t="s">
@@ -21171,11 +21807,14 @@
       <c r="I213" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J213" s="3" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>49</v>
       </c>
@@ -21188,7 +21827,7 @@
       <c r="D214" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F214" s="1" t="s">
@@ -21203,11 +21842,14 @@
       <c r="I214" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J214" s="7" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -21217,7 +21859,7 @@
       <c r="C215" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F215" s="1" t="s">
@@ -21232,11 +21874,14 @@
       <c r="I215" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="J215" s="1" t="s">
+      <c r="J215" s="5" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -21249,7 +21894,7 @@
       <c r="D216" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F216" s="1" t="s">
@@ -21264,11 +21909,14 @@
       <c r="I216" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J216" s="3" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>102</v>
       </c>
@@ -21281,7 +21929,7 @@
       <c r="D217" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F217" s="1" t="s">
@@ -21296,11 +21944,14 @@
       <c r="I217" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J217" s="7" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K217">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
@@ -21313,7 +21964,7 @@
       <c r="D218" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F218" s="1" t="s">
@@ -21328,11 +21979,14 @@
       <c r="I218" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J218" s="3" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>216</v>
       </c>
@@ -21342,7 +21996,7 @@
       <c r="C219" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F219" s="1" t="s">
@@ -21357,11 +22011,14 @@
       <c r="I219" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="J219" s="1" t="s">
+      <c r="J219" s="3" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -21374,7 +22031,7 @@
       <c r="D220" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F220" s="1" t="s">
@@ -21389,11 +22046,14 @@
       <c r="I220" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="J220" s="1" t="s">
+      <c r="J220" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>218</v>
       </c>
@@ -21406,7 +22066,7 @@
       <c r="D221" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E221" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F221" s="1" t="s">
@@ -21421,11 +22081,14 @@
       <c r="I221" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="J221" s="1" t="s">
+      <c r="J221" s="3" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="K221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
@@ -21435,7 +22098,7 @@
       <c r="C222" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F222" s="1" t="s">
@@ -21450,11 +22113,14 @@
       <c r="I222" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="J222" s="1" t="s">
+      <c r="J222" s="3" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="K222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
@@ -21464,7 +22130,7 @@
       <c r="C223" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F223" s="1" t="s">
@@ -21479,11 +22145,14 @@
       <c r="I223" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="J223" s="1" t="s">
+      <c r="J223" s="5" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="356" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
@@ -21493,7 +22162,7 @@
       <c r="C224" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F224" s="1" t="s">
@@ -21508,11 +22177,14 @@
       <c r="I224" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="J224" s="1" t="s">
+      <c r="J224" s="3" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>222</v>
       </c>
@@ -21522,7 +22194,7 @@
       <c r="C225" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F225" s="1" t="s">
@@ -21537,11 +22209,14 @@
       <c r="I225" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="J225" s="1" t="s">
+      <c r="J225" s="5" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>223</v>
       </c>
@@ -21554,7 +22229,7 @@
       <c r="D226" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="E226" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F226" s="1" t="s">
@@ -21569,11 +22244,14 @@
       <c r="I226" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="J226" s="1" t="s">
+      <c r="J226" s="3" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="K226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
@@ -21583,7 +22261,7 @@
       <c r="C227" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E227" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F227" s="1" t="s">
@@ -21598,11 +22276,14 @@
       <c r="I227" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="J227" s="1" t="s">
+      <c r="J227" s="3" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>222</v>
       </c>
@@ -21612,7 +22293,7 @@
       <c r="C228" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E228" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F228" s="1" t="s">
@@ -21627,11 +22308,14 @@
       <c r="I228" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="J228" s="5" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="255" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>225</v>
       </c>
@@ -21644,7 +22328,7 @@
       <c r="D229" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F229" s="1" t="s">
@@ -21659,11 +22343,14 @@
       <c r="I229" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="J229" s="3" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>226</v>
       </c>
@@ -21673,7 +22360,7 @@
       <c r="C230" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F230" s="1" t="s">
@@ -21688,11 +22375,14 @@
       <c r="I230" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="J230" s="1" t="s">
+      <c r="J230" s="3" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>227</v>
       </c>
@@ -21705,7 +22395,7 @@
       <c r="D231" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F231" s="1" t="s">
@@ -21720,11 +22410,14 @@
       <c r="I231" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="J231" s="1" t="s">
+      <c r="J231" s="5" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>228</v>
       </c>
@@ -21737,7 +22430,7 @@
       <c r="D232" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E232" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F232" s="1" t="s">
@@ -21752,11 +22445,14 @@
       <c r="I232" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="J232" s="1" t="s">
+      <c r="J232" s="5" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>229</v>
       </c>
@@ -21766,7 +22462,7 @@
       <c r="C233" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E233" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F233" s="1" t="s">
@@ -21781,11 +22477,14 @@
       <c r="I233" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="J233" s="1" t="s">
+      <c r="J233" s="3" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="K233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="255" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>222</v>
       </c>
@@ -21795,7 +22494,7 @@
       <c r="C234" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="E234" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F234" s="1" t="s">
@@ -21810,11 +22509,14 @@
       <c r="I234" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="J234" s="1" t="s">
+      <c r="J234" s="3" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="K234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>230</v>
       </c>
@@ -21827,7 +22529,7 @@
       <c r="D235" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E235" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F235" s="1" t="s">
@@ -21842,11 +22544,14 @@
       <c r="I235" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="J235" s="3" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="404" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>231</v>
       </c>
@@ -21856,7 +22561,7 @@
       <c r="C236" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E236" s="5" t="s">
         <v>944</v>
       </c>
       <c r="F236" s="1" t="s">
@@ -21871,11 +22576,14 @@
       <c r="I236" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="J236" s="1" t="s">
+      <c r="J236" s="3" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>232</v>
       </c>
@@ -21885,7 +22593,7 @@
       <c r="C237" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F237" s="1" t="s">
@@ -21900,11 +22608,14 @@
       <c r="I237" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="J237" s="1" t="s">
+      <c r="J237" s="5" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="K237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>233</v>
       </c>
@@ -21917,7 +22628,7 @@
       <c r="D238" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F238" s="1" t="s">
@@ -21932,11 +22643,14 @@
       <c r="I238" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="J238" s="1" t="s">
+      <c r="J238" s="3" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>234</v>
       </c>
@@ -21949,7 +22663,7 @@
       <c r="D239" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F239" s="1" t="s">
@@ -21964,11 +22678,14 @@
       <c r="I239" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J239" s="5" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="K239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="323" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>235</v>
       </c>
@@ -21978,7 +22695,7 @@
       <c r="C240" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F240" s="1" t="s">
@@ -21993,11 +22710,14 @@
       <c r="I240" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="J240" s="1" t="s">
+      <c r="J240" s="3" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>236</v>
       </c>
@@ -22010,7 +22730,7 @@
       <c r="D241" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E241" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F241" s="1" t="s">
@@ -22025,11 +22745,14 @@
       <c r="I241" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="J241" s="1" t="s">
+      <c r="J241" s="7" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="K241">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>102</v>
       </c>
@@ -22042,7 +22765,7 @@
       <c r="D242" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="E242" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F242" s="1" t="s">
@@ -22057,11 +22780,14 @@
       <c r="I242" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="J242" s="1" t="s">
+      <c r="J242" s="3" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>237</v>
       </c>
@@ -22071,7 +22797,7 @@
       <c r="C243" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E243" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F243" s="1" t="s">
@@ -22086,11 +22812,14 @@
       <c r="I243" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="J243" s="1" t="s">
+      <c r="J243" s="3" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="K243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>238</v>
       </c>
@@ -22103,7 +22832,7 @@
       <c r="D244" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="E244" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F244" s="1" t="s">
@@ -22118,11 +22847,14 @@
       <c r="I244" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="J244" s="1" t="s">
+      <c r="J244" s="3" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="404" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>239</v>
       </c>
@@ -22135,7 +22867,7 @@
       <c r="D245" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="E245" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F245" s="1" t="s">
@@ -22150,11 +22882,14 @@
       <c r="I245" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="J245" s="1" t="s">
+      <c r="J245" s="3" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="K245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
@@ -22167,7 +22902,7 @@
       <c r="D246" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E246" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F246" s="1" t="s">
@@ -22182,11 +22917,14 @@
       <c r="I246" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="J246" s="1" t="s">
+      <c r="J246" s="3" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="K246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="323" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>241</v>
       </c>
@@ -22196,7 +22934,7 @@
       <c r="C247" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="E247" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F247" s="1" t="s">
@@ -22211,11 +22949,14 @@
       <c r="I247" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="J247" s="1" t="s">
+      <c r="J247" s="3" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="K247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>242</v>
       </c>
@@ -22228,7 +22969,7 @@
       <c r="D248" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E248" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F248" s="1" t="s">
@@ -22243,11 +22984,14 @@
       <c r="I248" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="J248" s="1" t="s">
+      <c r="J248" s="3" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="144" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>243</v>
       </c>
@@ -22260,7 +23004,7 @@
       <c r="D249" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E249" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F249" s="1" t="s">
@@ -22275,11 +23019,14 @@
       <c r="I249" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="J249" s="5" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="K249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="224" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>244</v>
       </c>
@@ -22289,7 +23036,7 @@
       <c r="C250" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E250" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F250" s="1" t="s">
@@ -22304,11 +23051,14 @@
       <c r="I250" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="J250" s="1" t="s">
+      <c r="J250" s="5" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="K250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>245</v>
       </c>
@@ -22318,7 +23068,7 @@
       <c r="C251" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="E251" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F251" s="1" t="s">
@@ -22333,11 +23083,14 @@
       <c r="I251" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="J251" s="1" t="s">
+      <c r="J251" s="3" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>160</v>
       </c>
@@ -22350,7 +23103,7 @@
       <c r="D252" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E252" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F252" s="1" t="s">
@@ -22365,11 +23118,14 @@
       <c r="I252" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="J252" s="1" t="s">
+      <c r="J252" s="3" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>246</v>
       </c>
@@ -22382,7 +23138,7 @@
       <c r="D253" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="E253" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F253" s="1" t="s">
@@ -22397,11 +23153,14 @@
       <c r="I253" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="J253" s="1" t="s">
+      <c r="J253" s="7" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="K253">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>247</v>
       </c>
@@ -22414,7 +23173,7 @@
       <c r="D254" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F254" s="1" t="s">
@@ -22429,11 +23188,14 @@
       <c r="I254" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="J254" s="1" t="s">
+      <c r="J254" s="3" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>248</v>
       </c>
@@ -22446,7 +23208,7 @@
       <c r="D255" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E255" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F255" s="1" t="s">
@@ -22461,11 +23223,14 @@
       <c r="I255" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="J255" s="1" t="s">
+      <c r="J255" s="3" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>249</v>
       </c>
@@ -22478,7 +23243,7 @@
       <c r="D256" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E256" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F256" s="1" t="s">
@@ -22493,11 +23258,14 @@
       <c r="I256" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="J256" s="1" t="s">
+      <c r="J256" s="3" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="K256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>250</v>
       </c>
@@ -22507,7 +23275,7 @@
       <c r="C257" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E257" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F257" s="1" t="s">
@@ -22522,11 +23290,14 @@
       <c r="I257" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="J257" s="1" t="s">
+      <c r="J257" s="3" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>102</v>
       </c>
@@ -22539,7 +23310,7 @@
       <c r="D258" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E258" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F258" s="1" t="s">
@@ -22554,11 +23325,14 @@
       <c r="I258" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="J258" s="1" t="s">
+      <c r="J258" s="5" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="350" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>251</v>
       </c>
@@ -22571,7 +23345,7 @@
       <c r="D259" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="E259" s="1" t="s">
+      <c r="E259" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F259" s="1" t="s">
@@ -22586,11 +23360,14 @@
       <c r="I259" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="J259" s="5" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+      <c r="K259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>252</v>
       </c>
@@ -22600,7 +23377,7 @@
       <c r="C260" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="E260" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F260" s="1" t="s">
@@ -22615,11 +23392,14 @@
       <c r="I260" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="J260" s="1" t="s">
+      <c r="J260" s="3" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>253</v>
       </c>
@@ -22629,7 +23409,7 @@
       <c r="C261" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="E261" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F261" s="1" t="s">
@@ -22644,11 +23424,14 @@
       <c r="I261" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="J261" s="1" t="s">
+      <c r="J261" s="8" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="K261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>254</v>
       </c>
@@ -22661,8 +23444,8 @@
       <c r="D262" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>944</v>
+      <c r="E262" s="5" t="s">
+        <v>943</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>953</v>
@@ -22676,11 +23459,14 @@
       <c r="I262" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="J262" s="1" t="s">
+      <c r="J262" s="3" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+      <c r="K262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="372" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>255</v>
       </c>
@@ -22690,7 +23476,7 @@
       <c r="C263" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E263" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F263" s="1" t="s">
@@ -22705,11 +23491,14 @@
       <c r="I263" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="J263" s="1" t="s">
+      <c r="J263" s="3" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="K263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>256</v>
       </c>
@@ -22722,7 +23511,7 @@
       <c r="D264" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E264" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F264" s="1" t="s">
@@ -22737,11 +23526,14 @@
       <c r="I264" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="J264" s="1" t="s">
+      <c r="J264" s="3" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>257</v>
       </c>
@@ -22754,7 +23546,7 @@
       <c r="D265" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E265" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F265" s="1" t="s">
@@ -22769,11 +23561,14 @@
       <c r="I265" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="J265" s="1" t="s">
+      <c r="J265" s="3" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="K265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="340" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>258</v>
       </c>
@@ -22783,7 +23578,7 @@
       <c r="C266" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E266" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F266" s="1" t="s">
@@ -22798,11 +23593,14 @@
       <c r="I266" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="J266" s="1" t="s">
+      <c r="J266" s="3" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>259</v>
       </c>
@@ -22812,7 +23610,7 @@
       <c r="C267" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="E267" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F267" s="1" t="s">
@@ -22827,11 +23625,14 @@
       <c r="I267" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="J267" s="1" t="s">
+      <c r="J267" s="3" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="K267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>260</v>
       </c>
@@ -22844,7 +23645,7 @@
       <c r="D268" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="E268" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F268" s="1" t="s">
@@ -22859,11 +23660,15 @@
       <c r="I268" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="J268" s="1" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="J268" s="3" t="e">
+        <f>- A roof can have clawing shingles, but they are considered unacceptable characteristics.</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>261</v>
       </c>
@@ -22873,7 +23678,7 @@
       <c r="C269" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E269" s="1" t="s">
+      <c r="E269" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F269" s="1" t="s">
@@ -22888,11 +23693,14 @@
       <c r="I269" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="J269" s="1" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="J269" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>103</v>
       </c>
@@ -22905,7 +23713,7 @@
       <c r="D270" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="E270" s="1" t="s">
+      <c r="E270" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F270" s="1" t="s">
@@ -22920,11 +23728,14 @@
       <c r="I270" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="J270" s="1" t="s">
+      <c r="J270" s="5" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="K270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>262</v>
       </c>
@@ -22937,7 +23748,7 @@
       <c r="D271" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="E271" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F271" s="1" t="s">
@@ -22952,11 +23763,14 @@
       <c r="I271" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="J271" s="1" t="s">
+      <c r="J271" s="3" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="K271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>263</v>
       </c>
@@ -22966,7 +23780,7 @@
       <c r="C272" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="E272" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F272" s="1" t="s">
@@ -22981,11 +23795,14 @@
       <c r="I272" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="J272" s="1" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="J272" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="255" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>264</v>
       </c>
@@ -22995,7 +23812,7 @@
       <c r="C273" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="E273" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F273" s="1" t="s">
@@ -23010,11 +23827,14 @@
       <c r="I273" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="J273" s="1" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="J273" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>265</v>
       </c>
@@ -23027,7 +23847,7 @@
       <c r="D274" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E274" s="1" t="s">
+      <c r="E274" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F274" s="1" t="s">
@@ -23042,11 +23862,14 @@
       <c r="I274" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="J274" s="1" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J274" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>266</v>
       </c>
@@ -23056,7 +23879,7 @@
       <c r="C275" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="E275" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F275" s="1" t="s">
@@ -23071,11 +23894,14 @@
       <c r="I275" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="J275" s="1" t="s">
+      <c r="J275" s="3" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>267</v>
       </c>
@@ -23088,7 +23914,7 @@
       <c r="D276" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="E276" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F276" s="1" t="s">
@@ -23103,11 +23929,14 @@
       <c r="I276" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="J276" s="1" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="J276" s="7" t="s">
+        <v>1977</v>
+      </c>
+      <c r="K276">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>268</v>
       </c>
@@ -23117,7 +23946,7 @@
       <c r="C277" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="E277" s="1" t="s">
+      <c r="E277" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F277" s="1" t="s">
@@ -23132,11 +23961,14 @@
       <c r="I277" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="J277" s="1" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="J277" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>269</v>
       </c>
@@ -23149,7 +23981,7 @@
       <c r="D278" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="E278" s="1" t="s">
+      <c r="E278" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F278" s="1" t="s">
@@ -23164,11 +23996,14 @@
       <c r="I278" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="J278" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="J278" s="7" t="s">
+        <v>1979</v>
+      </c>
+      <c r="K278">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>270</v>
       </c>
@@ -23181,7 +24016,7 @@
       <c r="D279" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E279" s="5" t="s">
         <v>796</v>
       </c>
       <c r="F279" s="1" t="s">
@@ -23196,11 +24031,14 @@
       <c r="I279" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="J279" s="1" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+      <c r="J279" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="356" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>271</v>
       </c>
@@ -23210,7 +24048,7 @@
       <c r="C280" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E280" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F280" s="1" t="s">
@@ -23225,11 +24063,14 @@
       <c r="I280" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="J280" s="1" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+      <c r="J280" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="323" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>272</v>
       </c>
@@ -23239,7 +24080,7 @@
       <c r="C281" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="E281" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F281" s="1" t="s">
@@ -23254,11 +24095,14 @@
       <c r="I281" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="J281" s="1" t="s">
+      <c r="J281" s="3" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="K281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>273</v>
       </c>
@@ -23271,7 +24115,7 @@
       <c r="D282" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="E282" s="1" t="s">
+      <c r="E282" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F282" s="1" t="s">
@@ -23286,11 +24130,14 @@
       <c r="I282" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="J282" s="1" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="J282" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="K282">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>274</v>
       </c>
@@ -23300,7 +24147,7 @@
       <c r="C283" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="E283" s="1" t="s">
+      <c r="E283" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F283" s="1" t="s">
@@ -23315,11 +24162,14 @@
       <c r="I283" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="J283" s="1" t="s">
+      <c r="J283" s="3" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="K283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>275</v>
       </c>
@@ -23329,7 +24179,7 @@
       <c r="C284" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E284" s="1" t="s">
+      <c r="E284" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F284" s="1" t="s">
@@ -23344,11 +24194,14 @@
       <c r="I284" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="J284" s="1" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="J284" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="272" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>276</v>
       </c>
@@ -23358,7 +24211,7 @@
       <c r="C285" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="E285" s="1" t="s">
+      <c r="E285" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F285" s="1" t="s">
@@ -23373,11 +24226,14 @@
       <c r="I285" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="J285" s="1" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+      <c r="J285" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="404" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>277</v>
       </c>
@@ -23390,7 +24246,7 @@
       <c r="D286" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="E286" s="1" t="s">
+      <c r="E286" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F286" s="1" t="s">
@@ -23405,11 +24261,14 @@
       <c r="I286" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="J286" s="1" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="J286" s="7" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K286">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>278</v>
       </c>
@@ -23422,7 +24281,7 @@
       <c r="D287" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="E287" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F287" s="1" t="s">
@@ -23437,11 +24296,14 @@
       <c r="I287" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="J287" s="1" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="J287" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>279</v>
       </c>
@@ -23454,7 +24316,7 @@
       <c r="D288" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E288" s="7" t="s">
         <v>942</v>
       </c>
       <c r="F288" s="1" t="s">
@@ -23469,11 +24331,14 @@
       <c r="I288" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="J288" s="1" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+      <c r="J288" s="3" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="395" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>280</v>
       </c>
@@ -23486,7 +24351,7 @@
       <c r="D289" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="E289" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F289" s="1" t="s">
@@ -23501,11 +24366,14 @@
       <c r="I289" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="J289" s="1" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="J289" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>281</v>
       </c>
@@ -23518,7 +24386,7 @@
       <c r="D290" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="E290" s="1" t="s">
+      <c r="E290" s="5" t="s">
         <v>943</v>
       </c>
       <c r="F290" s="1" t="s">
@@ -23533,11 +24401,14 @@
       <c r="I290" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="J290" s="1" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="J290" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>282</v>
       </c>
@@ -23547,7 +24418,7 @@
       <c r="C291" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="E291" s="1" t="s">
+      <c r="E291" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F291" s="1" t="s">
@@ -23562,11 +24433,14 @@
       <c r="I291" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="J291" s="1" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="J291" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="240" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>283</v>
       </c>
@@ -23579,7 +24453,7 @@
       <c r="D292" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="E292" s="1" t="s">
+      <c r="E292" s="3" t="s">
         <v>944</v>
       </c>
       <c r="F292" s="1" t="s">
@@ -23594,8 +24468,11 @@
       <c r="I292" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="J292" s="1" t="s">
-        <v>1992</v>
+      <c r="J292" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
